--- a/biology/Botanique/Parc_de_Contamines/Parc_de_Contamines.xlsx
+++ b/biology/Botanique/Parc_de_Contamines/Parc_de_Contamines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Contamines est un parc public de 13 825 m2, situé à Genève, en Suisse.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se situe en ville de Genève, dans un périmètre situé entre les deux grands axes que sont la route de Florissant et la route de Malagnou, sur la rive gauche du lac Léman, non loin du parc Bertrand. Il est délimité par les rues Crespin et Michel-Chauvet ainsi que par l'avenue Krieg.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette parcelle de verdure fut acquise en 1845 par Anna et L.Suzanne Ferrière (1803-1890 et 1806-1883), institutrices, qui, aidées de leur frère, le pasteur Emmanuel Ferrière (1807-1871), y firent construire en 1847, une villa, dans le but d'y ouvrir un pensionnat pour jeunes filles.
 La maison, à laquelle vinrent s’ajouter trois chalets-dépendance construits en 1852 sur la partie nord du terrain, fut reprise à la mort des deux sœurs par leur neveu, le médecin Frédéric Ferrière (1848-1924), vice-président du CICR et député au Grand Conseil. À la mort de celui-ci, son fils Adolphe Ferrière (1879-1960), y ouvrit en compagnie de sa sœur Marianne dite Maya, les toutes premières classes Montessori de l'École Internationale. À cette époque, Maya fit construire à l'est de la propriété, un nouveau pavillon baptisé «La Volière».
@@ -578,7 +594,9 @@
           <t>Contenu du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En bordure du parc se trouve l'école de Contamines, dont le préau comprend une place de jeux aménagée qui s'étend sur la zone de verdure voisine. La villa du Général Dufour ainsi que le parc attenant devraient prochainement devenir propriété de la ville permettant ainsi de prolonger le parc actuel.
 </t>
